--- a/Gestion_de_Cursos/Archivos_exportados/2024/2-2024/reportes_estadisticos/SISTEMAS COMPUTACIONALES/reporte_(Version_2).xlsx
+++ b/Gestion_de_Cursos/Archivos_exportados/2024/2-2024/reportes_estadisticos/SISTEMAS COMPUTACIONALES/reporte_(Version_2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samue\Documents\NetBeansProjects\DesarrolloAcademico\Gestion_de_Cursos\Archivos_importados\2024\2-2024\formato_de_reporte_para_docentes_capacitados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6ACE2D-7BCA-4BF3-9572-988EDFE449AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE416E48-5F9E-473E-A43A-86504FF2FB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>NO.</t>
   </si>
@@ -34,9 +34,6 @@
     <t>A. PROFESIONAL</t>
   </si>
   <si>
-    <t xml:space="preserve">COLOCAR EL NO. DE CURSOS ADQUIRIDOS X AÑO	</t>
-  </si>
-  <si>
     <t>REPORTE DE DOCENTES CAPACITADOS EN CURSOS ACTUALIZACIÓN DOCENTE Y ACTUALIZACIÓN PROFESIONAL</t>
   </si>
   <si>
@@ -55,6 +52,12 @@
     <t>CURSOS</t>
   </si>
   <si>
+    <t>SISTEMAS COMPUTACIONALES</t>
+  </si>
+  <si>
+    <t>AGOSTO - DICIEMBRE 2024</t>
+  </si>
+  <si>
     <t>Andrea Perea Burgos</t>
   </si>
   <si>
@@ -65,6 +68,12 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>MARITZA FLORES SARABIA</t>
+  </si>
+  <si>
+    <t>JEFE DEL DEPARTAMENTO DE DESARROLLO ACADEMICO</t>
   </si>
 </sst>
 </file>
@@ -72,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +96,61 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -162,6 +226,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,23 +568,23 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.25" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="8.375" collapsed="true" bestFit="true"/>
     <col min="2" max="2" customWidth="true" width="4.4296875" collapsed="true" bestFit="true"/>
     <col min="3" max="3" customWidth="true" width="24.2890625" collapsed="true" bestFit="true"/>
-    <col min="5" max="5" customWidth="true" width="45.1171875" collapsed="true" bestFit="true"/>
+    <col min="5" max="5" customWidth="true" width="31.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="2"/>
@@ -496,7 +593,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="2"/>
@@ -508,34 +605,24 @@
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E9" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row r="5">
+      <c r="E5" t="s" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" t="s" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="4"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -546,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>2</v>
@@ -557,10 +644,10 @@
     </row>
     <row r="11">
       <c r="B11" t="n" s="8">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C11" t="s" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="n" s="8">
         <v>4.0</v>
@@ -574,10 +661,10 @@
     </row>
     <row r="12">
       <c r="B12" t="n" s="8">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="C12" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="n" s="8">
@@ -589,10 +676,10 @@
     </row>
     <row r="13">
       <c r="B13" t="n" s="8">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="C13" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n" s="8">
         <v>5.0</v>
@@ -605,15 +692,27 @@
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="E14" s="8">
-        <f>SUM(E10:E13)</f>
-      </c>
-      <c r="F14" s="8">
-        <f>SUM(F10:F13)</f>
-      </c>
+      <c r="D14" t="s" s="15">
+        <v>15</v>
+      </c>
+      <c r="E14" t="n" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="F14" t="n" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19">
+      <c r="E19" t="s" s="18">
+        <v>17</v>
+      </c>
+      <c r="F19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -622,6 +721,8 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
